--- a/data/trans_bre/IP16A04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A04-Edad-trans_bre.xlsx
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,31%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,61; -1,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 2,77</t>
+          <t>0,0; 7,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-4,31%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,61; -1,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,39; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,92</t>
+          <t>-4,28; 2,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">

--- a/data/trans_bre/IP16A04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A04-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,17 +604,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>201,25%</t>
+          <t>208,03%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,51</t>
+          <t>0,0; 15,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,61</t>
+          <t>-2,5; 3,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 8,07</t>
+          <t>-2,57; 14,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,92</t>
+          <t>0,0; 6,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,31%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,61; -1,23</t>
+          <t>-17,02; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 0,0</t>
+          <t>-9,98; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 2,77</t>
+          <t>0,0; 7,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-24,48%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-65,71%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>168,01%</t>
+          <t>-19,72%</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 2,36</t>
+          <t>-10,61; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,37</t>
+          <t>-9,66; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 4,01</t>
+          <t>-8,3; 4,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -907,14 +907,102 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-79,73; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-24,48%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-65,71%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>168,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 1,79</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 0,45</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 4,02</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-72,94; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/IP16A04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A04-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,09</t>
+          <t>0,0; 15,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 3,92</t>
+          <t>-2,53; 5,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 14,25</t>
+          <t>-2,11; 13,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,24</t>
+          <t>0,0; 5,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 0,0</t>
+          <t>-16,72; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 0,0</t>
+          <t>-9,7; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,27</t>
+          <t>0,0; 7,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 0,0</t>
+          <t>-11,98; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 0,0</t>
+          <t>-10,09; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 4,29</t>
+          <t>-8,8; 4,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -962,17 +962,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,79</t>
+          <t>-2,63; 2,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 0,45</t>
+          <t>-2,27; 0,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 4,02</t>
+          <t>-0,68; 3,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-72,94; —</t>
+          <t>-72,24; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A04-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,1</t>
+          <t>0,0; 16,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 5,08</t>
+          <t>-2,54; 3,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 13,55</t>
+          <t>-2,18; 13,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,28</t>
+          <t>0,0; 6,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 0,0</t>
+          <t>-16,73; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 0,0</t>
+          <t>-9,97; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,0</t>
+          <t>0,0; 8,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 0,0</t>
+          <t>-10,57; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 0,0</t>
+          <t>-9,56; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 4,36</t>
+          <t>-10,37; 4,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -962,17 +962,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,1</t>
+          <t>-2,55; 2,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,66</t>
+          <t>-1,97; 0,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,94</t>
+          <t>-0,49; 4,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-72,24; —</t>
+          <t>-79,73; —</t>
         </is>
       </c>
     </row>
